--- a/biology/Biologie cellulaire et moléculaire/Costamère/Costamère.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Costamère/Costamère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Costam%C3%A8re</t>
+          <t>Costamère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le costamère est le point d'ancrage des myofibrilles au sarcolemme par le biais de la desmine[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le costamère est le point d'ancrage des myofibrilles au sarcolemme par le biais de la desmine.
 Il participe donc à l'organisation de la cellule musculaire en servant de point d'attache, alignant alors les myofibrilles au niveau de leur disques Z.
 Plus précisément, les costamères sont des plaques d’adhérence constituées de complexes Intégrine-Vinculine-Taline (qui sont des dispositifs d’adhérence non spécifique au tissu musculaire) mais également enrichies en complexes dystrophine (spécifique du tissu musculaire).
 </t>
